--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>DateTime</t>
   </si>
@@ -418,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -470,2634 +470,2540 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2">
-        <v>44743.74317129629</v>
+        <v>44743.74664351852</v>
       </c>
       <c r="C2">
-        <v>131.8246875</v>
+        <v>34.32</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>39.71999999880791</v>
       </c>
       <c r="F2">
-        <v>131.8246875</v>
+        <v>34.32</v>
       </c>
       <c r="G2">
-        <v>1656690610</v>
+        <v>1656690910</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4.814155814359139</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>131.8246875</v>
+        <v>34.32</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>-0.1026946428571429</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>170133321.047125</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>5.399999998807907</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>97.48986977111757</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>-18.04986977350175</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>44743.74664351852</v>
+        <v>44743.75011574074</v>
       </c>
       <c r="C3">
-        <v>87.87</v>
+        <v>4.04</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>105.3285937607288</v>
+        <v>10.25166666507721</v>
       </c>
       <c r="F3">
-        <v>87.87</v>
+        <v>4.04</v>
       </c>
       <c r="G3">
-        <v>1656690910</v>
+        <v>1656691210</v>
       </c>
       <c r="H3">
-        <v>13.68991297836269</v>
+        <v>5.338495257558953</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>105.3285937607288</v>
+        <v>4.04</v>
       </c>
       <c r="K3">
-        <v>-0.1474136111111111</v>
+        <v>-0.0977375</v>
       </c>
       <c r="L3">
-        <v>244218894.8666466</v>
+        <v>161920867.3890417</v>
       </c>
       <c r="M3">
-        <v>17.45859376072883</v>
+        <v>6.211666665077209</v>
       </c>
       <c r="N3">
-        <v>160.0882456741796</v>
+        <v>74.31360975578464</v>
       </c>
       <c r="O3">
-        <v>50.56894184727808</v>
+        <v>-53.81027642563022</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2">
-        <v>44743.75011574074</v>
+        <v>44743.75358796296</v>
       </c>
       <c r="C4">
-        <v>46.0496875</v>
+        <v>-22.05</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>63.27097657322884</v>
+        <v>-16.48916667699814</v>
       </c>
       <c r="F4">
-        <v>46.0496875</v>
+        <v>-22.05</v>
       </c>
       <c r="G4">
-        <v>1656691210</v>
+        <v>1656691510</v>
       </c>
       <c r="H4">
-        <v>13.48722709696992</v>
+        <v>6.865281769730265</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>46.0496875</v>
+        <v>-22.05</v>
       </c>
       <c r="K4">
-        <v>-0.1321704861111111</v>
+        <v>-0.08268988095238096</v>
       </c>
       <c r="L4">
-        <v>218965745.8326814</v>
+        <v>136991607.2475536</v>
       </c>
       <c r="M4">
-        <v>17.22128907322884</v>
+        <v>5.560833323001862</v>
       </c>
       <c r="N4">
-        <v>117.2198849611085</v>
+        <v>65.89421455976503</v>
       </c>
       <c r="O4">
-        <v>9.322068185349139</v>
+        <v>-98.87254791376131</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
-        <v>44743.75358796296</v>
+        <v>44743.75706018518</v>
       </c>
       <c r="C5">
-        <v>8.75</v>
+        <v>-47.895</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>25.35957032442093</v>
+        <v>-39.96666666865349</v>
       </c>
       <c r="F5">
-        <v>8.75</v>
+        <v>-47.895</v>
       </c>
       <c r="G5">
-        <v>1656691510</v>
+        <v>1656691810</v>
       </c>
       <c r="H5">
-        <v>12.38891898915573</v>
+        <v>6.294769388067862</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.75</v>
+        <v>-47.895</v>
       </c>
       <c r="K5">
-        <v>-0.1170993923611111</v>
+        <v>-0.07515119047619048</v>
       </c>
       <c r="L5">
-        <v>193997594.510382</v>
+        <v>124502321.8069881</v>
       </c>
       <c r="M5">
-        <v>16.60957032442093</v>
+        <v>7.928333331346515</v>
       </c>
       <c r="N5">
-        <v>74.91524628104384</v>
+        <v>35.57056598816085</v>
       </c>
       <c r="O5">
-        <v>-24.19610563220198</v>
+        <v>-115.5038993254678</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2">
-        <v>44743.75706018518</v>
+        <v>44743.76053240741</v>
       </c>
       <c r="C6">
-        <v>-23.4815625</v>
+        <v>-73.44</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>-8.072265625</v>
+        <v>-59.25</v>
       </c>
       <c r="F6">
-        <v>-23.4815625</v>
+        <v>-73.44</v>
       </c>
       <c r="G6">
-        <v>1656691810</v>
+        <v>1656692110</v>
       </c>
       <c r="H6">
-        <v>11.53810344585646</v>
+        <v>6.118913546839779</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>-23.4815625</v>
+        <v>-73.44</v>
       </c>
       <c r="K6">
-        <v>-0.1024071180555556</v>
+        <v>-0.06274642857142858</v>
       </c>
       <c r="L6">
-        <v>169657025.6960764</v>
+        <v>103951453.8949643</v>
       </c>
       <c r="M6">
-        <v>15.409296875</v>
+        <v>14.19</v>
       </c>
       <c r="N6">
-        <v>38.08014815842584</v>
+        <v>14.17696256207735</v>
       </c>
       <c r="O6">
-        <v>-54.22467940842584</v>
+        <v>-132.6769625620773</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
-        <v>44743.76053240741</v>
+        <v>44743.76400462963</v>
       </c>
       <c r="C7">
-        <v>-51.48</v>
+        <v>-79.17</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>-36.92554688453674</v>
+        <v>-78.31833332777023</v>
       </c>
       <c r="F7">
-        <v>-51.48</v>
+        <v>-79.17</v>
       </c>
       <c r="G7">
-        <v>1656692110</v>
+        <v>1656692410</v>
       </c>
       <c r="H7">
-        <v>11.58527116348396</v>
+        <v>7.995288655242905</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>-51.48</v>
+        <v>-79.17</v>
       </c>
       <c r="K7">
-        <v>-0.08911916666666667</v>
+        <v>-0.05122261904761904</v>
       </c>
       <c r="L7">
-        <v>147642983.3408948</v>
+        <v>84860045.87817857</v>
       </c>
       <c r="M7">
-        <v>14.55445311546325</v>
+        <v>0.8516666722297686</v>
       </c>
       <c r="N7">
-        <v>9.415537769399087</v>
+        <v>17.62513053514462</v>
       </c>
       <c r="O7">
-        <v>-83.26663153847258</v>
+        <v>-174.2617971906851</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>44743.76400462963</v>
+        <v>44743.76747685186</v>
       </c>
       <c r="C8">
-        <v>-76.28125</v>
+        <v>-103.5</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>-61.7822265625</v>
+        <v>-93.12833333015442</v>
       </c>
       <c r="F8">
-        <v>-76.28125</v>
+        <v>-103.5</v>
       </c>
       <c r="G8">
-        <v>1656692410</v>
+        <v>1656692710</v>
       </c>
       <c r="H8">
-        <v>11.21849345367923</v>
+        <v>3.972607118956784</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>-76.28125</v>
+        <v>-103.5</v>
       </c>
       <c r="K8">
-        <v>-0.07561385416666666</v>
+        <v>-0.04465595238095238</v>
       </c>
       <c r="L8">
-        <v>125268836.506537</v>
+        <v>73981097.63929762</v>
       </c>
       <c r="M8">
-        <v>14.4990234375</v>
+        <v>10.37166666984558</v>
       </c>
       <c r="N8">
-        <v>-16.9082527477831</v>
+        <v>-45.45704790267302</v>
       </c>
       <c r="O8">
-        <v>-106.6562003772169</v>
+        <v>-140.7996187576358</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>44743.76747685186</v>
+        <v>44743.77094907407</v>
       </c>
       <c r="C9">
-        <v>-97.7175</v>
+        <v>-106.925</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>-82.89015625417233</v>
+        <v>-106.25</v>
       </c>
       <c r="F9">
-        <v>-97.7175</v>
+        <v>-106.925</v>
       </c>
       <c r="G9">
-        <v>1656692710</v>
+        <v>1656693010</v>
       </c>
       <c r="H9">
-        <v>10.32442157501142</v>
+        <v>6.086679397569669</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-97.7175</v>
+        <v>-106.925</v>
       </c>
       <c r="K9">
-        <v>-0.06318121527777777</v>
+        <v>-0.03506785714285715</v>
       </c>
       <c r="L9">
-        <v>104671775.8694788</v>
+        <v>58096567.55425001</v>
       </c>
       <c r="M9">
-        <v>14.82734374582768</v>
+        <v>0.6749999999999972</v>
       </c>
       <c r="N9">
-        <v>-41.59246995412666</v>
+        <v>-33.20984722916397</v>
       </c>
       <c r="O9">
-        <v>-124.187842554218</v>
+        <v>-179.290152770836</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>44743.77094907407</v>
+        <v>44743.77442129629</v>
       </c>
       <c r="C10">
-        <v>-113.59375</v>
+        <v>-116.1</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>-100.7435546815395</v>
+        <v>-119.2108333334327</v>
       </c>
       <c r="F10">
-        <v>-113.59375</v>
+        <v>-116.1</v>
       </c>
       <c r="G10">
-        <v>1656693010</v>
+        <v>1656693310</v>
       </c>
       <c r="H10">
-        <v>9.639655553057532</v>
+        <v>7.035578360232724</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-113.59375</v>
+        <v>-116.1</v>
       </c>
       <c r="K10">
-        <v>-0.05180482638888889</v>
+        <v>-0.03869583333333334</v>
       </c>
       <c r="L10">
-        <v>85824593.01918109</v>
+        <v>64107008.99737501</v>
       </c>
       <c r="M10">
-        <v>12.85019531846046</v>
+        <v>3.11083333343268</v>
       </c>
       <c r="N10">
-        <v>-62.18493246930941</v>
+        <v>-34.78389301063999</v>
       </c>
       <c r="O10">
-        <v>-139.3021768937697</v>
+        <v>-203.6377736562254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>44743.77442129629</v>
+        <v>44743.77789351852</v>
       </c>
       <c r="C11">
-        <v>-127</v>
+        <v>-135.24</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>-115.0700781196356</v>
+        <v>-98.65916666388512</v>
       </c>
       <c r="F11">
-        <v>-127</v>
+        <v>-135.24</v>
       </c>
       <c r="G11">
-        <v>1656693310</v>
+        <v>1656693610</v>
       </c>
       <c r="H11">
-        <v>8.938657960755762</v>
+        <v>54.743568058691</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>-127</v>
+        <v>-135.24</v>
       </c>
       <c r="K11">
-        <v>-0.04090847222222223</v>
+        <v>0.0315047619047619</v>
       </c>
       <c r="L11">
-        <v>67772677.18279828</v>
+        <v>-52193836.39135714</v>
       </c>
       <c r="M11">
-        <v>11.92992188036442</v>
+        <v>36.58083333611489</v>
       </c>
       <c r="N11">
-        <v>-79.31544627661253</v>
+        <v>558.2636500404069</v>
       </c>
       <c r="O11">
-        <v>-150.8247099626586</v>
+        <v>-755.5819833681771</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>44743.77789351852</v>
+        <v>44743.78136574074</v>
       </c>
       <c r="C12">
-        <v>-135.7846875</v>
+        <v>-130.05</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>-131.2869921848178</v>
+        <v>-105.1208333335817</v>
       </c>
       <c r="F12">
-        <v>-135.7846875</v>
+        <v>-130.05</v>
       </c>
       <c r="G12">
-        <v>1656693610</v>
+        <v>1656693910</v>
       </c>
       <c r="H12">
-        <v>8.249602908237051</v>
+        <v>59.22576286329847</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>-135.7846875</v>
+        <v>-130.05</v>
       </c>
       <c r="K12">
-        <v>-0.03923288194444444</v>
+        <v>0.01983273809523809</v>
       </c>
       <c r="L12">
-        <v>64996733.5322533</v>
+        <v>-32856881.54183928</v>
       </c>
       <c r="M12">
-        <v>4.497695315182199</v>
+        <v>24.92916666641833</v>
       </c>
       <c r="N12">
-        <v>-98.28858055186959</v>
+        <v>605.5883210259999</v>
       </c>
       <c r="O12">
-        <v>-164.285403817766</v>
+        <v>-815.8299876931633</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>44743.78136574074</v>
+        <v>44743.78483796296</v>
       </c>
       <c r="C13">
-        <v>-144.25</v>
+        <v>-160.38</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>-138.7302343770862</v>
+        <v>-108.9199999999255</v>
       </c>
       <c r="F13">
-        <v>-144.25</v>
+        <v>-160.38</v>
       </c>
       <c r="G13">
-        <v>1656693910</v>
+        <v>1656694210</v>
       </c>
       <c r="H13">
-        <v>14.09648905989854</v>
+        <v>61.26308346168544</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>-144.25</v>
+        <v>-160.38</v>
       </c>
       <c r="K13">
-        <v>-0.02659375</v>
+        <v>0.002323809523809517</v>
       </c>
       <c r="L13">
-        <v>44057564.93882812</v>
+        <v>-3849950.703238085</v>
       </c>
       <c r="M13">
-        <v>5.519765622913837</v>
+        <v>51.4600000000745</v>
       </c>
       <c r="N13">
-        <v>-82.34427813749198</v>
+        <v>626.2370015402998</v>
       </c>
       <c r="O13">
-        <v>-195.1161906166803</v>
+        <v>-844.0770015401508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>44743.78483796296</v>
+        <v>44743.78831018518</v>
       </c>
       <c r="C14">
-        <v>-149.9534375</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>-143.3455859385431</v>
+        <v>-141.3916666666046</v>
       </c>
       <c r="F14">
-        <v>-149.9534375</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>1656694210</v>
+        <v>1656694510</v>
       </c>
       <c r="H14">
-        <v>16.6094933578143</v>
+        <v>13.79997770731769</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>-149.9534375</v>
+        <v>-141.3916666666046</v>
       </c>
       <c r="K14">
-        <v>-0.01525322916666667</v>
+        <v>-0.0009083333333333303</v>
       </c>
       <c r="L14">
-        <v>25269793.09863385</v>
+        <v>1504689.454916662</v>
       </c>
       <c r="M14">
-        <v>6.607851561456926</v>
+        <v>166.3916666666046</v>
       </c>
       <c r="N14">
-        <v>-76.90761250728586</v>
+        <v>24.20806582120767</v>
       </c>
       <c r="O14">
-        <v>-209.7835593698003</v>
+        <v>-306.9913991544169</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>44743.78831018518</v>
+        <v>44743.79178240741</v>
       </c>
       <c r="C15">
-        <v>-151.5</v>
+        <v>-137.08</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>-145.411796875298</v>
+        <v>-113.6716666668653</v>
       </c>
       <c r="F15">
-        <v>-151.5</v>
+        <v>-137.08</v>
       </c>
       <c r="G15">
-        <v>1656694510</v>
+        <v>1656694810</v>
       </c>
       <c r="H15">
-        <v>17.92330031421666</v>
+        <v>62.94541875722739</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>-151.5</v>
+        <v>-137.08</v>
       </c>
       <c r="K15">
-        <v>-0.004027152777777776</v>
+        <v>-0.01407619047619048</v>
       </c>
       <c r="L15">
-        <v>6671616.486078816</v>
+        <v>23319838.03480952</v>
       </c>
       <c r="M15">
-        <v>6.088203124701977</v>
+        <v>23.40833333313466</v>
       </c>
       <c r="N15">
-        <v>-73.71859561843138</v>
+        <v>641.6733584198633</v>
       </c>
       <c r="O15">
-        <v>-217.1049981321647</v>
+        <v>-869.016691753594</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>44743.79178240741</v>
+        <v>44743.79525462963</v>
       </c>
       <c r="C16">
-        <v>-190</v>
+        <v>-160.05</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>-140.3674609381706</v>
+        <v>-108.5683333352208</v>
       </c>
       <c r="F16">
-        <v>-190</v>
+        <v>-160.05</v>
       </c>
       <c r="G16">
-        <v>1656694810</v>
+        <v>1656695110</v>
       </c>
       <c r="H16">
-        <v>6.935700649278194</v>
+        <v>59.27072407471727</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>-140.3674609381706</v>
+        <v>-160.05</v>
       </c>
       <c r="K16">
-        <v>0.005929131944444445</v>
+        <v>-0.02220595238095238</v>
       </c>
       <c r="L16">
-        <v>-9822902.487627259</v>
+        <v>36788384.15408333</v>
       </c>
       <c r="M16">
-        <v>49.63253906182945</v>
+        <v>51.4816666647792</v>
       </c>
       <c r="N16">
-        <v>-112.6246583410578</v>
+        <v>602.6803555613865</v>
       </c>
       <c r="O16">
-        <v>-168.1102635352833</v>
+        <v>-819.8170222318281</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>44743.79525462963</v>
+        <v>44743.79872685186</v>
       </c>
       <c r="C17">
-        <v>-144.2925</v>
+        <v>-125.55</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>-143.1224999986589</v>
+        <v>-104.0958333313465</v>
       </c>
       <c r="F17">
-        <v>-144.2925</v>
+        <v>-125.55</v>
       </c>
       <c r="G17">
-        <v>1656695110</v>
+        <v>1656695410</v>
       </c>
       <c r="H17">
-        <v>17.01206927630438</v>
+        <v>55.45843077296367</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>-144.2925</v>
+        <v>-125.55</v>
       </c>
       <c r="K17">
-        <v>0.01623725694444444</v>
+        <v>-0.03734821428571427</v>
       </c>
       <c r="L17">
-        <v>-26900327.30217465</v>
+        <v>61874511.08300593</v>
       </c>
       <c r="M17">
-        <v>1.170000001341094</v>
+        <v>21.45416666865349</v>
       </c>
       <c r="N17">
-        <v>-75.07422289344139</v>
+        <v>561.4053359442175</v>
       </c>
       <c r="O17">
-        <v>-211.1707771038764</v>
+        <v>-769.5970026069106</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>44743.79872685186</v>
+        <v>44743.80219907407</v>
       </c>
       <c r="C18">
-        <v>-140.34375</v>
+        <v>-131</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>-138.110664062202</v>
+        <v>-123.9458333328366</v>
       </c>
       <c r="F18">
-        <v>-140.34375</v>
+        <v>-131</v>
       </c>
       <c r="G18">
-        <v>1656695410</v>
+        <v>1656695710</v>
       </c>
       <c r="H18">
-        <v>15.2220852990602</v>
+        <v>10.62572419968795</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>-140.34375</v>
+        <v>-131</v>
       </c>
       <c r="K18">
-        <v>0.0255259375</v>
+        <v>0.02830357142857143</v>
       </c>
       <c r="L18">
-        <v>-42288841.60286094</v>
+        <v>-46890529.30922619</v>
       </c>
       <c r="M18">
-        <v>2.233085937798023</v>
+        <v>7.054166667163372</v>
       </c>
       <c r="N18">
-        <v>-77.22232286596116</v>
+        <v>3.562857063418789</v>
       </c>
       <c r="O18">
-        <v>-198.9990052584428</v>
+        <v>-251.454523729092</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>44743.80219907407</v>
+        <v>44743.80567129629</v>
       </c>
       <c r="C19">
-        <v>-131.67</v>
+        <v>-122.4</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>-131.3407031223178</v>
+        <v>-113.5725000053644</v>
       </c>
       <c r="F19">
-        <v>-131.67</v>
+        <v>-122.4</v>
       </c>
       <c r="G19">
-        <v>1656695710</v>
+        <v>1656696010</v>
       </c>
       <c r="H19">
-        <v>12.74345837236075</v>
+        <v>9.012048226904229</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>-131.67</v>
+        <v>-122.4</v>
       </c>
       <c r="K19">
-        <v>0.03369159722222222</v>
+        <v>0.04349821428571429</v>
       </c>
       <c r="L19">
-        <v>-55816855.92180659</v>
+        <v>-72063431.62176788</v>
       </c>
       <c r="M19">
-        <v>0.3292968776821965</v>
+        <v>8.827499994635588</v>
       </c>
       <c r="N19">
-        <v>-80.36686963287477</v>
+        <v>-5.427921282513665</v>
       </c>
       <c r="O19">
-        <v>-182.3145366117608</v>
+        <v>-221.7170787282152</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>44743.80567129629</v>
+        <v>44743.80914351852</v>
       </c>
       <c r="C20">
-        <v>-125.1453125</v>
+        <v>-99.045</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>-122.4414453059435</v>
+        <v>-98.60999999940395</v>
       </c>
       <c r="F20">
-        <v>-125.1453125</v>
+        <v>-99.045</v>
       </c>
       <c r="G20">
-        <v>1656696010</v>
+        <v>1656696310</v>
       </c>
       <c r="H20">
-        <v>8.874324872488936</v>
+        <v>10.62714168546917</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>-125.1453125</v>
+        <v>-99.045</v>
       </c>
       <c r="K20">
-        <v>0.04090107638888888</v>
+        <v>0.04622142857142857</v>
       </c>
       <c r="L20">
-        <v>-67760772.49962272</v>
+        <v>-76574968.76721428</v>
       </c>
       <c r="M20">
-        <v>2.703867194056514</v>
+        <v>0.4350000005960482</v>
       </c>
       <c r="N20">
-        <v>-86.94414581598775</v>
+        <v>28.91570022622605</v>
       </c>
       <c r="O20">
-        <v>-157.9387447958992</v>
+        <v>-226.135700225034</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>44743.80914351852</v>
+        <v>44743.81261574074</v>
       </c>
       <c r="C21">
-        <v>-112.1175</v>
+        <v>-99.55</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>-107.6636718735099</v>
+        <v>-82.32166667282581</v>
       </c>
       <c r="F21">
-        <v>-112.1175</v>
+        <v>-99.55</v>
       </c>
       <c r="G21">
-        <v>1656696310</v>
+        <v>1656696610</v>
       </c>
       <c r="H21">
-        <v>4.180141568987731</v>
+        <v>2.747617185652265</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>-112.1175</v>
+        <v>-99.55</v>
       </c>
       <c r="K21">
-        <v>0.03643868055555555</v>
+        <v>0.05854642857142857</v>
       </c>
       <c r="L21">
-        <v>-60367935.2813295</v>
+        <v>-96993752.06355953</v>
       </c>
       <c r="M21">
-        <v>4.453828126490123</v>
+        <v>17.22833332717418</v>
       </c>
       <c r="N21">
-        <v>-90.94310559755895</v>
+        <v>-49.35026044499864</v>
       </c>
       <c r="O21">
-        <v>-124.3842381494608</v>
+        <v>-115.293072900653</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>44743.81261574074</v>
+        <v>44743.81608796296</v>
       </c>
       <c r="C22">
-        <v>-100.2065625</v>
+        <v>-66.23999999999999</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>-96.50269530713558</v>
+        <v>-66.27500000596046</v>
       </c>
       <c r="F22">
-        <v>-100.2065625</v>
+        <v>-66.23999999999999</v>
       </c>
       <c r="G22">
-        <v>1656696610</v>
+        <v>1656696910</v>
       </c>
       <c r="H22">
-        <v>3.343422424457086</v>
+        <v>6.726663184451161</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>-100.2065625</v>
+        <v>-66.23999999999999</v>
       </c>
       <c r="K22">
-        <v>0.0408603125</v>
+        <v>0.06631428571428571</v>
       </c>
       <c r="L22">
-        <v>-67693237.70498593</v>
+        <v>-109862738.5067143</v>
       </c>
       <c r="M22">
-        <v>3.703867192864422</v>
+        <v>0.03500000596046959</v>
       </c>
       <c r="N22">
-        <v>-83.12900560930724</v>
+        <v>14.44495820745347</v>
       </c>
       <c r="O22">
-        <v>-109.8763850049639</v>
+        <v>-146.9949582193744</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>44743.81608796296</v>
+        <v>44743.81956018518</v>
       </c>
       <c r="C23">
-        <v>-87.12</v>
+        <v>-46.92</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>-83.97054687142372</v>
+        <v>-44.54999999701977</v>
       </c>
       <c r="F23">
-        <v>-87.12</v>
+        <v>-46.92</v>
       </c>
       <c r="G23">
-        <v>1656696910</v>
+        <v>1656697210</v>
       </c>
       <c r="H23">
-        <v>2.950525702891476</v>
+        <v>7.315868841413293</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>-87.12</v>
+        <v>-46.92</v>
       </c>
       <c r="K23">
-        <v>0.04433305555555555</v>
+        <v>0.07299285714285714</v>
       </c>
       <c r="L23">
-        <v>-73446520.12029408</v>
+        <v>-120927107.3285</v>
       </c>
       <c r="M23">
-        <v>3.149453128576283</v>
+        <v>2.370000002980234</v>
       </c>
       <c r="N23">
-        <v>-72.16844405985782</v>
+        <v>43.24042609993975</v>
       </c>
       <c r="O23">
-        <v>-95.77264968298962</v>
+        <v>-132.3404260939793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>44743.81956018518</v>
+        <v>44743.82303240741</v>
       </c>
       <c r="C24">
-        <v>-73.78125</v>
+        <v>-28.325</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>-70.51117187738419</v>
+        <v>-21.37833333015442</v>
       </c>
       <c r="F24">
-        <v>-73.78125</v>
+        <v>-28.325</v>
       </c>
       <c r="G24">
-        <v>1656697210</v>
+        <v>1656697510</v>
       </c>
       <c r="H24">
-        <v>1.935874336608334</v>
+        <v>3.802956195190494</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>-73.78125</v>
+        <v>-28.325</v>
       </c>
       <c r="K24">
-        <v>0.04755024305555555</v>
+        <v>0.08415714285714286</v>
       </c>
       <c r="L24">
-        <v>-78776425.51613264</v>
+        <v>-139422950.3984762</v>
       </c>
       <c r="M24">
-        <v>3.270078122615814</v>
+        <v>6.94666666984558</v>
       </c>
       <c r="N24">
-        <v>-62.76767453095085</v>
+        <v>24.25714101213151</v>
       </c>
       <c r="O24">
-        <v>-78.25466922381752</v>
+        <v>-67.01380767244035</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>44743.82303240741</v>
+        <v>44743.82650462963</v>
       </c>
       <c r="C25">
-        <v>-58.75</v>
+        <v>-1.41</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>-56.03535155951977</v>
+        <v>6.129999995231628</v>
       </c>
       <c r="F25">
-        <v>-58.75</v>
+        <v>-1.41</v>
       </c>
       <c r="G25">
-        <v>1656697510</v>
+        <v>1656697810</v>
       </c>
       <c r="H25">
-        <v>1.988862559330959</v>
+        <v>5.615136536447909</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>-58.75</v>
+        <v>-1.41</v>
       </c>
       <c r="K25">
-        <v>0.04948991319444444</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="L25">
-        <v>-81989871.99470381</v>
+        <v>-146452080.274</v>
       </c>
       <c r="M25">
-        <v>2.714648440480232</v>
+        <v>7.539999995231629</v>
       </c>
       <c r="N25">
-        <v>-48.07990132219593</v>
+        <v>73.51163843260653</v>
       </c>
       <c r="O25">
-        <v>-63.99080179684361</v>
+        <v>-61.25163844214327</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>44743.82650462963</v>
+        <v>44743.82997685186</v>
       </c>
       <c r="C26">
-        <v>-43.09375</v>
+        <v>27.27</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>-41.22378906607628</v>
+        <v>19.89000000059605</v>
       </c>
       <c r="F26">
-        <v>-43.09375</v>
+        <v>27.27</v>
       </c>
       <c r="G26">
-        <v>1656697810</v>
+        <v>1656698110</v>
       </c>
       <c r="H26">
-        <v>1.549564268868174</v>
+        <v>21.32859405745044</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>-43.09375</v>
+        <v>27.27</v>
       </c>
       <c r="K26">
-        <v>0.05141048611111111</v>
+        <v>0.06871785714285714</v>
       </c>
       <c r="L26">
-        <v>-85171680.97510226</v>
+        <v>-113844724.1618214</v>
       </c>
       <c r="M26">
-        <v>1.869960933923721</v>
+        <v>7.379999999403953</v>
       </c>
       <c r="N26">
-        <v>-35.02553199060358</v>
+        <v>275.8331286900013</v>
       </c>
       <c r="O26">
-        <v>-47.42204614154898</v>
+        <v>-236.0531286888092</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>44743.82997685186</v>
+        <v>44743.83344907407</v>
       </c>
       <c r="C27">
-        <v>-27</v>
+        <v>58.58</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>-26.00718750059605</v>
+        <v>48.22166666388512</v>
       </c>
       <c r="F27">
-        <v>-27</v>
+        <v>58.58</v>
       </c>
       <c r="G27">
-        <v>1656698110</v>
+        <v>1656698410</v>
       </c>
       <c r="H27">
-        <v>1.015991976715776</v>
+        <v>26.42400488511228</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>-27</v>
+        <v>58.58</v>
       </c>
       <c r="K27">
-        <v>0.05265111111111111</v>
+        <v>0.08405714285714286</v>
       </c>
       <c r="L27">
-        <v>-87227022.27436528</v>
+        <v>-139257286.6989048</v>
       </c>
       <c r="M27">
-        <v>0.9928124994039536</v>
+        <v>10.35833333611488</v>
       </c>
       <c r="N27">
-        <v>-21.94321959373294</v>
+        <v>365.3097252852325</v>
       </c>
       <c r="O27">
-        <v>-30.07115540745915</v>
+        <v>-268.8663919574623</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>44743.83344907407</v>
+        <v>44743.83692129629</v>
       </c>
       <c r="C28">
-        <v>-10.65625</v>
+        <v>92.41500000000001</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>-10.54339843988419</v>
+        <v>79.04333332180977</v>
       </c>
       <c r="F28">
-        <v>-10.65625</v>
+        <v>92.41500000000001</v>
       </c>
       <c r="G28">
-        <v>1656698410</v>
+        <v>1656698710</v>
       </c>
       <c r="H28">
-        <v>0.4744570114015927</v>
+        <v>28.93699226987809</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>-10.65625</v>
+        <v>92.41500000000001</v>
       </c>
       <c r="K28">
-        <v>0.05327298611111111</v>
+        <v>0.09716547619047619</v>
       </c>
       <c r="L28">
-        <v>-88257281.9296283</v>
+        <v>-160973840.0179643</v>
       </c>
       <c r="M28">
-        <v>0.1128515601158142</v>
+        <v>13.37166667819024</v>
       </c>
       <c r="N28">
-        <v>-8.645570394277815</v>
+        <v>426.2872405603468</v>
       </c>
       <c r="O28">
-        <v>-12.44122648549056</v>
+        <v>-268.2005739167273</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>44743.83692129629</v>
+        <v>44743.84039351852</v>
       </c>
       <c r="C29">
-        <v>5.6925</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>5.166914060711861</v>
+        <v>128.9308333396912</v>
       </c>
       <c r="F29">
-        <v>5.6925</v>
+        <v>45</v>
       </c>
       <c r="G29">
-        <v>1656698710</v>
+        <v>1656699010</v>
       </c>
       <c r="H29">
-        <v>0.4893050584766933</v>
+        <v>8.592422034281752</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>5.6925</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.05322282986111111</v>
+        <v>0.1184970238095238</v>
       </c>
       <c r="L29">
-        <v>-88174188.4065382</v>
+        <v>-196313773.1023512</v>
       </c>
       <c r="M29">
-        <v>0.5255859392881392</v>
+        <v>83.93083333969116</v>
       </c>
       <c r="N29">
-        <v>7.124134294618633</v>
+        <v>232.0398977510722</v>
       </c>
       <c r="O29">
-        <v>3.209693826805088</v>
+        <v>25.82176892831015</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>44743.84039351852</v>
+        <v>44743.84386574074</v>
       </c>
       <c r="C30">
-        <v>22.03125</v>
+        <v>154.38</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>20.73785156011581</v>
+        <v>152.607499986887</v>
       </c>
       <c r="F30">
-        <v>22.03125</v>
+        <v>154.38</v>
       </c>
       <c r="G30">
-        <v>1656699010</v>
+        <v>1656699310</v>
       </c>
       <c r="H30">
-        <v>0.8486523366012096</v>
+        <v>31.62177290275818</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>22.03125</v>
+        <v>154.38</v>
       </c>
       <c r="K30">
-        <v>0.05254767361111111</v>
+        <v>0.1335714285714285</v>
       </c>
       <c r="L30">
-        <v>-87055658.11147934</v>
+        <v>-221287540.9425</v>
       </c>
       <c r="M30">
-        <v>1.293398439884186</v>
+        <v>1.772500013113017</v>
       </c>
       <c r="N30">
-        <v>24.13246090652065</v>
+        <v>532.068774819985</v>
       </c>
       <c r="O30">
-        <v>17.34324221371098</v>
+        <v>-226.8537748462111</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>44743.84386574074</v>
+        <v>44743.84733796296</v>
       </c>
       <c r="C31">
-        <v>37.62</v>
+        <v>190.44</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>36.16972656548023</v>
+        <v>198.3591666817665</v>
       </c>
       <c r="F31">
-        <v>37.62</v>
+        <v>190.44</v>
       </c>
       <c r="G31">
-        <v>1656699310</v>
+        <v>1656699610</v>
       </c>
       <c r="H31">
-        <v>1.189759846323204</v>
+        <v>30.67545679926922</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>37.62</v>
+        <v>190.44</v>
       </c>
       <c r="K31">
-        <v>0.05145862847222222</v>
+        <v>0.1659220238095238</v>
       </c>
       <c r="L31">
-        <v>-85251438.11375034</v>
+        <v>-274882753.7764821</v>
       </c>
       <c r="M31">
-        <v>1.450273434519765</v>
+        <v>7.919166681766512</v>
       </c>
       <c r="N31">
-        <v>40.92876595077305</v>
+        <v>566.4646482729971</v>
       </c>
       <c r="O31">
-        <v>31.41068718018742</v>
+        <v>-169.7463149094641</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>44743.84733796296</v>
+        <v>44743.85081018518</v>
       </c>
       <c r="C32">
-        <v>52.9340625</v>
+        <v>250.5</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>50.82144531607628</v>
+        <v>241.5866666436195</v>
       </c>
       <c r="F32">
-        <v>52.9340625</v>
+        <v>250.5</v>
       </c>
       <c r="G32">
-        <v>1656699610</v>
+        <v>1656699910</v>
       </c>
       <c r="H32">
-        <v>2.222878877268684</v>
+        <v>18.11360886608602</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>52.9340625</v>
+        <v>250.5</v>
       </c>
       <c r="K32">
-        <v>0.04924381944444445</v>
+        <v>0.1926583333333333</v>
       </c>
       <c r="L32">
-        <v>-81582165.64707622</v>
+        <v>-319176801.9074166</v>
       </c>
       <c r="M32">
-        <v>2.112617183923724</v>
+        <v>8.913333356380463</v>
       </c>
       <c r="N32">
-        <v>59.71296082515101</v>
+        <v>458.9499730366517</v>
       </c>
       <c r="O32">
-        <v>41.92992980700154</v>
+        <v>24.22336025058732</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>44743.85081018518</v>
+        <v>44743.85428240741</v>
       </c>
       <c r="C33">
-        <v>68.25</v>
+        <v>278.71</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>64.97867187857628</v>
+        <v>299.8066666722298</v>
       </c>
       <c r="F33">
-        <v>68.25</v>
+        <v>278.71</v>
       </c>
       <c r="G33">
-        <v>1656699910</v>
+        <v>1656700210</v>
       </c>
       <c r="H33">
-        <v>2.394518133279508</v>
+        <v>14.89174159286559</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>68.25</v>
+        <v>278.71</v>
       </c>
       <c r="K33">
-        <v>0.04695954861111111</v>
+        <v>0.1626071428571428</v>
       </c>
       <c r="L33">
-        <v>-77797814.97899652</v>
+        <v>-269390987.9122618</v>
       </c>
       <c r="M33">
-        <v>3.271328121423721</v>
+        <v>21.09666667222979</v>
       </c>
       <c r="N33">
-        <v>74.55674441169431</v>
+        <v>478.5075657866169</v>
       </c>
       <c r="O33">
-        <v>55.40059934545825</v>
+        <v>121.1057675578427</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>44743.85428240741</v>
+        <v>44743.85775462963</v>
       </c>
       <c r="C34">
-        <v>82.15625</v>
+        <v>369.15</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>78.03238281607628</v>
+        <v>336.5133333206177</v>
       </c>
       <c r="F34">
-        <v>82.15625</v>
+        <v>369.15</v>
       </c>
       <c r="G34">
-        <v>1656700210</v>
+        <v>1656700510</v>
       </c>
       <c r="H34">
-        <v>3.397938619601175</v>
+        <v>14.25642837922954</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>82.15625</v>
+        <v>369.15</v>
       </c>
       <c r="K34">
-        <v>0.04343159722222222</v>
+        <v>0.1548869047619048</v>
       </c>
       <c r="L34">
-        <v>-71953058.20630816</v>
+        <v>-256600877.5980357</v>
       </c>
       <c r="M34">
-        <v>4.123867183923721</v>
+        <v>32.6366666793823</v>
       </c>
       <c r="N34">
-        <v>91.62413729448097</v>
+        <v>507.5904738713721</v>
       </c>
       <c r="O34">
-        <v>64.44062833767158</v>
+        <v>165.4361927698632</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>44743.85775462963</v>
+        <v>44743.86122685186</v>
       </c>
       <c r="C35">
-        <v>95.95</v>
+        <v>411.84</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>89.88925781100988</v>
+        <v>393.5383333563805</v>
       </c>
       <c r="F35">
-        <v>95.95</v>
+        <v>411.84</v>
       </c>
       <c r="G35">
-        <v>1656700510</v>
+        <v>1656700810</v>
       </c>
       <c r="H35">
-        <v>3.960936567897167</v>
+        <v>23.03690656844443</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>95.95</v>
+        <v>411.84</v>
       </c>
       <c r="K35">
-        <v>0.03934609375</v>
+        <v>0.1667166666666667</v>
       </c>
       <c r="L35">
-        <v>-65184603.692875</v>
+        <v>-276199243.1688333</v>
       </c>
       <c r="M35">
-        <v>6.060742188990119</v>
+        <v>18.30166664361951</v>
       </c>
       <c r="N35">
-        <v>105.7330040825986</v>
+        <v>669.9812121777136</v>
       </c>
       <c r="O35">
-        <v>74.04551153942121</v>
+        <v>117.0954545350473</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>44743.86122685186</v>
+        <v>44743.86469907407</v>
       </c>
       <c r="C36">
-        <v>105.5278125</v>
+        <v>422.53</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>101.2502734363079</v>
+        <v>454.1733333468437</v>
       </c>
       <c r="F36">
-        <v>105.5278125</v>
+        <v>422.53</v>
       </c>
       <c r="G36">
-        <v>1656700810</v>
+        <v>1656701110</v>
       </c>
       <c r="H36">
-        <v>4.253690547594702</v>
+        <v>22.17981005778884</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>105.5278125</v>
+        <v>422.53</v>
       </c>
       <c r="K36">
-        <v>0.03520052083333333</v>
+        <v>0.1790892857142857</v>
       </c>
       <c r="L36">
-        <v>-58316630.12673177</v>
+        <v>-296696964.2586309</v>
       </c>
       <c r="M36">
-        <v>4.277539063692089</v>
+        <v>31.64333334684375</v>
       </c>
       <c r="N36">
-        <v>118.2650356266867</v>
+        <v>720.3310540403098</v>
       </c>
       <c r="O36">
-        <v>84.2355112459291</v>
+        <v>188.0156126533776</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>44743.86469907407</v>
+        <v>44743.86817129629</v>
       </c>
       <c r="C37">
-        <v>117.9175</v>
+        <v>465.06</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>110.6651171892881</v>
+        <v>413.1333333328366</v>
       </c>
       <c r="F37">
-        <v>117.9175</v>
+        <v>465.06</v>
       </c>
       <c r="G37">
-        <v>1656701110</v>
+        <v>1656701410</v>
       </c>
       <c r="H37">
-        <v>4.00338844152144</v>
+        <v>175.2381990479118</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>117.9175</v>
+        <v>465.06</v>
       </c>
       <c r="K37">
-        <v>0.03029553819444445</v>
+        <v>-0.03611666666666666</v>
       </c>
       <c r="L37">
-        <v>-50190541.08966633</v>
+        <v>59834945.72449999</v>
       </c>
       <c r="M37">
-        <v>7.252382810711865</v>
+        <v>51.92666666716337</v>
       </c>
       <c r="N37">
-        <v>126.6786709553739</v>
+        <v>2515.991721907778</v>
       </c>
       <c r="O37">
-        <v>94.65156342320238</v>
+        <v>-1689.725055242105</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>44743.86817129629</v>
+        <v>44743.87164351852</v>
       </c>
       <c r="C38">
-        <v>124.0284375</v>
+        <v>575.28</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>118.7957812473178</v>
+        <v>456.4733333289623</v>
       </c>
       <c r="F38">
-        <v>124.0284375</v>
+        <v>575.28</v>
       </c>
       <c r="G38">
-        <v>1656701410</v>
+        <v>1656701710</v>
       </c>
       <c r="H38">
-        <v>5.194994738486217</v>
+        <v>204.1402409847832</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>124.0284375</v>
+        <v>575.28</v>
       </c>
       <c r="K38">
-        <v>0.02449756944444444</v>
+        <v>0.05328452380952382</v>
       </c>
       <c r="L38">
-        <v>-40585039.04440278</v>
+        <v>-88276105.2384405</v>
       </c>
       <c r="M38">
-        <v>5.232656252682204</v>
+        <v>118.8066666710376</v>
       </c>
       <c r="N38">
-        <v>139.5757602012627</v>
+        <v>2906.15622514636</v>
       </c>
       <c r="O38">
-        <v>98.01580229337293</v>
+        <v>-1993.209558488436</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>44743.87164351852</v>
+        <v>44743.87511574074</v>
       </c>
       <c r="C39">
-        <v>130.68</v>
+        <v>625</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>124.6485546864569</v>
+        <v>509.8549999892712</v>
       </c>
       <c r="F39">
-        <v>130.68</v>
+        <v>625</v>
       </c>
       <c r="G39">
-        <v>1656701710</v>
+        <v>1656702010</v>
       </c>
       <c r="H39">
-        <v>6.168965411522048</v>
+        <v>217.7064053648968</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>130.68</v>
+        <v>625</v>
       </c>
       <c r="K39">
-        <v>0.01777015625</v>
+        <v>0.1340928571428572</v>
       </c>
       <c r="L39">
-        <v>-29439723.5977875</v>
+        <v>-222151396.1002143</v>
       </c>
       <c r="M39">
-        <v>6.031445313543088</v>
+        <v>115.1450000107288</v>
       </c>
       <c r="N39">
-        <v>149.3244163325451</v>
+        <v>3122.331864368033</v>
       </c>
       <c r="O39">
-        <v>99.97269304036872</v>
+        <v>-2102.62186438949</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>44743.87511574074</v>
+        <v>44743.87858796296</v>
       </c>
       <c r="C40">
-        <v>138.0859375</v>
+        <v>75</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>128.374335937202</v>
+        <v>695</v>
       </c>
       <c r="F40">
-        <v>138.0859375</v>
+        <v>75</v>
       </c>
       <c r="G40">
-        <v>1656702010</v>
+        <v>1656702310</v>
       </c>
       <c r="H40">
-        <v>6.19491027117372</v>
+        <v>40.617447860471</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J40">
-        <v>138.0859375</v>
+        <v>695</v>
       </c>
       <c r="K40">
-        <v>0.01135517361111111</v>
+        <v>0.247925</v>
       </c>
       <c r="L40">
-        <v>-18812010.57109079</v>
+        <v>-410737225.20675</v>
       </c>
       <c r="M40">
-        <v>9.711601562798023</v>
+        <v>620</v>
       </c>
       <c r="N40">
-        <v>153.1539770218968</v>
+        <v>1182.409374325652</v>
       </c>
       <c r="O40">
-        <v>103.5946948525071</v>
+        <v>207.5906256743481</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>44743.87858796296</v>
+        <v>44743.88206018518</v>
       </c>
       <c r="C41">
-        <v>140.6425</v>
+        <v>739.41</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
       <c r="E41">
-        <v>130.1778515623882</v>
+        <v>661.5550000071526</v>
       </c>
       <c r="F41">
-        <v>140.6425</v>
+        <v>739.41</v>
       </c>
       <c r="G41">
-        <v>1656702310</v>
+        <v>1656702610</v>
       </c>
       <c r="H41">
-        <v>6.885870107300701</v>
+        <v>231.6239212897424</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>140.6425</v>
+        <v>739.41</v>
       </c>
       <c r="K41">
-        <v>0.003166753472222219</v>
+        <v>0.2957392857142857</v>
       </c>
       <c r="L41">
-        <v>-5246237.614779509</v>
+        <v>-489951384.9673929</v>
       </c>
       <c r="M41">
-        <v>10.46464843761177</v>
+        <v>77.85499999284741</v>
       </c>
       <c r="N41">
-        <v>157.7213319915911</v>
+        <v>3441.042055484062</v>
       </c>
       <c r="O41">
-        <v>102.6343711331854</v>
+        <v>-2117.932055469757</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>44743.88206018518</v>
+        <v>44743.88553240741</v>
       </c>
       <c r="C42">
-        <v>139.40625</v>
+        <v>781.85</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>129.6591015625745</v>
+        <v>718.6050000190735</v>
       </c>
       <c r="F42">
-        <v>139.40625</v>
+        <v>781.85</v>
       </c>
       <c r="G42">
-        <v>1656702610</v>
+        <v>1656702910</v>
       </c>
       <c r="H42">
-        <v>7.868765290191909</v>
+        <v>217.4838199070688</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>139.40625</v>
+        <v>781.85</v>
       </c>
       <c r="K42">
-        <v>-0.004741736111111113</v>
+        <v>0.3519821428571429</v>
       </c>
       <c r="L42">
-        <v>7855776.250310594</v>
+        <v>-583129121.7344643</v>
       </c>
       <c r="M42">
-        <v>9.747148437425494</v>
+        <v>63.24499998092654</v>
       </c>
       <c r="N42">
-        <v>161.1341627233421</v>
+        <v>3328.410838903899</v>
       </c>
       <c r="O42">
-        <v>98.18404040180687</v>
+        <v>-1891.200838865752</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>44743.88553240741</v>
+        <v>44743.88900462963</v>
       </c>
       <c r="C43">
-        <v>135.63</v>
+        <v>983.4</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>126.7550781257451</v>
+        <v>760.366666674614</v>
       </c>
       <c r="F43">
-        <v>135.63</v>
+        <v>983.4</v>
       </c>
       <c r="G43">
-        <v>1656702910</v>
+        <v>1656703210</v>
       </c>
       <c r="H43">
-        <v>8.430643219120007</v>
+        <v>172.1145251863933</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>135.63</v>
+        <v>983.4</v>
       </c>
       <c r="K43">
-        <v>-0.0141004513888889</v>
+        <v>0.4279202380952381</v>
       </c>
       <c r="L43">
-        <v>23360385.6033639</v>
+        <v>-708936071.7096785</v>
       </c>
       <c r="M43">
-        <v>8.874921874254937</v>
+        <v>223.033333325386</v>
       </c>
       <c r="N43">
-        <v>160.4776510022251</v>
+        <v>2825.740968911333</v>
       </c>
       <c r="O43">
-        <v>93.03250524926503</v>
+        <v>-1305.007635562105</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>44743.88900462963</v>
+        <v>44743.89247685186</v>
       </c>
       <c r="C44">
-        <v>133.1621875</v>
+        <v>928.8</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>120.7246484383941</v>
+        <v>977.5166666507721</v>
       </c>
       <c r="F44">
-        <v>133.1621875</v>
+        <v>928.8</v>
       </c>
       <c r="G44">
-        <v>1656703210</v>
+        <v>1656703510</v>
       </c>
       <c r="H44">
-        <v>7.72982003195839</v>
+        <v>73.90667440934585</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>133.1621875</v>
+        <v>928.8</v>
       </c>
       <c r="K44">
-        <v>-0.02390020833333334</v>
+        <v>0.2760511904761904</v>
       </c>
       <c r="L44">
-        <v>39595672.59015053</v>
+        <v>-457333998.6849166</v>
       </c>
       <c r="M44">
-        <v>12.43753906160592</v>
+        <v>48.71666665077214</v>
       </c>
       <c r="N44">
-        <v>151.6439285662276</v>
+        <v>1864.396759562922</v>
       </c>
       <c r="O44">
-        <v>89.80536831056051</v>
+        <v>90.63657373862179</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>44743.89247685186</v>
+        <v>44743.89594907407</v>
       </c>
       <c r="C45">
-        <v>122.5125</v>
+        <v>960.02</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>112.1491796895862</v>
+        <v>1072.071666657925</v>
       </c>
       <c r="F45">
-        <v>122.5125</v>
+        <v>960.02</v>
       </c>
       <c r="G45">
-        <v>1656703510</v>
+        <v>1656703810</v>
       </c>
       <c r="H45">
-        <v>8.564003454862469</v>
+        <v>63.08065003257138</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>122.5125</v>
+        <v>960.02</v>
       </c>
       <c r="K45">
-        <v>-0.03352241319444445</v>
+        <v>0.2971964285714285</v>
       </c>
       <c r="L45">
-        <v>55536811.75208612</v>
+        <v>-492365383.4610118</v>
       </c>
       <c r="M45">
-        <v>10.36332031041384</v>
+        <v>112.0516666579247</v>
       </c>
       <c r="N45">
-        <v>146.4051935090361</v>
+        <v>1829.039467048781</v>
       </c>
       <c r="O45">
-        <v>77.89316587013629</v>
+        <v>315.103866267068</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>44743.89594907407</v>
+        <v>44743.89942129629</v>
       </c>
       <c r="C46">
-        <v>112.53125</v>
+        <v>1077.12</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>99.85773438215256</v>
+        <v>1164.721666693687</v>
       </c>
       <c r="F46">
-        <v>112.53125</v>
+        <v>1077.12</v>
       </c>
       <c r="G46">
-        <v>1656703810</v>
+        <v>1656704110</v>
       </c>
       <c r="H46">
-        <v>9.327380999208193</v>
+        <v>69.63643121074962</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>112.53125</v>
+        <v>1077.12</v>
       </c>
       <c r="K46">
-        <v>-0.04392100694444444</v>
+        <v>0.3090416666666667</v>
       </c>
       <c r="L46">
-        <v>72764199.40163194</v>
+        <v>-511989434.60625</v>
       </c>
       <c r="M46">
-        <v>12.67351561784744</v>
+        <v>87.60166669368755</v>
       </c>
       <c r="N46">
-        <v>137.1672583789853</v>
+        <v>2000.358841222683</v>
       </c>
       <c r="O46">
-        <v>62.54821038531978</v>
+        <v>329.0844921646919</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>44743.89942129629</v>
+        <v>44743.90289351852</v>
       </c>
       <c r="C47">
-        <v>97.02</v>
+        <v>1323.3</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>84.74210937321186</v>
+        <v>1208.161666631699</v>
       </c>
       <c r="F47">
-        <v>97.02</v>
+        <v>1323.3</v>
       </c>
       <c r="G47">
-        <v>1656704110</v>
+        <v>1656704410</v>
       </c>
       <c r="H47">
-        <v>10.15268879818365</v>
+        <v>32.78264239802784</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>97.02</v>
+        <v>1323.3</v>
       </c>
       <c r="K47">
-        <v>-0.05517</v>
+        <v>0.3493761904761905</v>
       </c>
       <c r="L47">
-        <v>91400450.49080937</v>
+        <v>-578811867.349238</v>
       </c>
       <c r="M47">
-        <v>12.27789062678814</v>
+        <v>115.1383333683013</v>
       </c>
       <c r="N47">
-        <v>125.3528645659464</v>
+        <v>1601.553375408033</v>
       </c>
       <c r="O47">
-        <v>44.13135418047727</v>
+        <v>814.7699578553645</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" s="2">
-        <v>44743.90289351852</v>
+        <v>44743.90636574074</v>
       </c>
       <c r="C48">
-        <v>79.96875</v>
+        <v>1337.96</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>66.01785156130791</v>
+        <v>1314.758333325386</v>
       </c>
       <c r="F48">
-        <v>79.96875</v>
+        <v>1337.96</v>
       </c>
       <c r="G48">
-        <v>1656704410</v>
+        <v>1656704710</v>
       </c>
       <c r="H48">
-        <v>10.2940380397351</v>
+        <v>56.8390656687523</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>79.96875</v>
+        <v>1337.96</v>
       </c>
       <c r="K48">
-        <v>-0.06748489583333334</v>
+        <v>0.336525</v>
       </c>
       <c r="L48">
-        <v>111802590.5533255</v>
+        <v>-557521237.7744167</v>
       </c>
       <c r="M48">
-        <v>13.95089843869209</v>
+        <v>23.20166667461399</v>
       </c>
       <c r="N48">
-        <v>107.1940037202483</v>
+        <v>1996.827121350414</v>
       </c>
       <c r="O48">
-        <v>24.84169940236752</v>
+        <v>632.6895453003584</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" s="2">
-        <v>44743.90636574074</v>
+        <v>44743.90983796296</v>
       </c>
       <c r="C49">
-        <v>58.8325</v>
+        <v>1454.85</v>
       </c>
       <c r="D49" t="s">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>52.01460938155651</v>
+        <v>1409.523333311081</v>
       </c>
       <c r="F49">
-        <v>58.8325</v>
+        <v>1454.85</v>
       </c>
       <c r="G49">
-        <v>1656704710</v>
+        <v>1656705010</v>
       </c>
       <c r="H49">
-        <v>13.93206467066171</v>
+        <v>47.57936365328399</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>58.8325</v>
+        <v>1454.85</v>
       </c>
       <c r="K49">
-        <v>-0.064279375</v>
+        <v>0.2829619047619048</v>
       </c>
       <c r="L49">
-        <v>106491995.3329656</v>
+        <v>-468782995.7348573</v>
       </c>
       <c r="M49">
-        <v>6.817890618443492</v>
+        <v>45.32666668891898</v>
       </c>
       <c r="N49">
-        <v>107.7428680642033</v>
+        <v>1980.475697150489</v>
       </c>
       <c r="O49">
-        <v>-3.713649301090321</v>
+        <v>838.570969471673</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" s="2">
-        <v>44743.90983796296</v>
+        <v>44743.91331018518</v>
       </c>
       <c r="C50">
-        <v>32.3296875</v>
+        <v>1490.22</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>25.98605468869209</v>
+        <v>1537.578333318233</v>
       </c>
       <c r="F50">
-        <v>32.3296875</v>
+        <v>1490.22</v>
       </c>
       <c r="G50">
-        <v>1656705010</v>
+        <v>1656705310</v>
       </c>
       <c r="H50">
-        <v>22.84513491772649</v>
+        <v>51.15076030720646</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>32.3296875</v>
+        <v>1490.22</v>
       </c>
       <c r="K50">
-        <v>-0.08157170138888889</v>
+        <v>0.2875988095238095</v>
       </c>
       <c r="L50">
-        <v>135140272.3512509</v>
+        <v>-476464937.3094404</v>
       </c>
       <c r="M50">
-        <v>6.343632811307906</v>
+        <v>47.35833331823346</v>
       </c>
       <c r="N50">
-        <v>117.366594359598</v>
+        <v>2151.387457004711</v>
       </c>
       <c r="O50">
-        <v>-65.39448498221385</v>
+        <v>923.769209631756</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2">
-        <v>44743.91331018518</v>
+        <v>44743.91678240741</v>
       </c>
       <c r="C51">
-        <v>2.97</v>
+        <v>1583.04</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>-21.91039061546326</v>
+        <v>1617.425000011921</v>
       </c>
       <c r="F51">
-        <v>2.97</v>
+        <v>1583.04</v>
       </c>
       <c r="G51">
-        <v>1656705310</v>
+        <v>1656705610</v>
       </c>
       <c r="H51">
-        <v>59.5023204544372</v>
+        <v>44.20614509747478</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>2.97</v>
+        <v>1583.04</v>
       </c>
       <c r="K51">
-        <v>-0.1303251388888889</v>
+        <v>0.3189214285714286</v>
       </c>
       <c r="L51">
-        <v>215910327.7133191</v>
+        <v>-528357302.4385</v>
       </c>
       <c r="M51">
-        <v>24.88039061546326</v>
+        <v>34.38500001192097</v>
       </c>
       <c r="N51">
-        <v>216.0988912022856</v>
+        <v>2147.898741181618</v>
       </c>
       <c r="O51">
-        <v>-259.9196724332121</v>
+        <v>1086.951258842224</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2">
-        <v>44743.91678240741</v>
+        <v>44743.92025462963</v>
       </c>
       <c r="C52">
-        <v>-31.2153125</v>
+        <v>1645.5</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>-56.09640625119209</v>
+        <v>1710.756666660309</v>
       </c>
       <c r="F52">
-        <v>-31.2153125</v>
+        <v>1645.5</v>
       </c>
       <c r="G52">
-        <v>1656705610</v>
+        <v>1656705910</v>
       </c>
       <c r="H52">
-        <v>56.93555475602359</v>
+        <v>40.24683366230525</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>-31.2153125</v>
+        <v>1645.5</v>
       </c>
       <c r="K52">
-        <v>-0.1406140625</v>
+        <v>0.3124309523809524</v>
       </c>
       <c r="L52">
-        <v>232956050.0922344</v>
+        <v>-517604494.5197857</v>
       </c>
       <c r="M52">
-        <v>24.88109375119209</v>
+        <v>65.25666666030884</v>
       </c>
       <c r="N52">
-        <v>171.6458127729023</v>
+        <v>2193.718670607972</v>
       </c>
       <c r="O52">
-        <v>-283.8386252752865</v>
+        <v>1227.794662712646</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" s="2">
-        <v>44743.92025462963</v>
+        <v>44743.92372685186</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1880.82</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>-103.8381640613079</v>
+        <v>1800.47916662693</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1880.82</v>
       </c>
       <c r="G53">
-        <v>1656705910</v>
+        <v>1656706210</v>
       </c>
       <c r="H53">
-        <v>43.16347095607927</v>
+        <v>50.29452880819589</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1880.82</v>
       </c>
       <c r="K53">
-        <v>-0.1519012673611111</v>
+        <v>0.3832494047619048</v>
       </c>
       <c r="L53">
-        <v>251655623.5354788</v>
+        <v>-634929868.3686845</v>
       </c>
       <c r="M53">
-        <v>103.8381640613079</v>
+        <v>80.3408333730697</v>
       </c>
       <c r="N53">
-        <v>68.81571976300916</v>
+        <v>2404.013512325281</v>
       </c>
       <c r="O53">
-        <v>-276.492047885625</v>
+        <v>1196.944820928579</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2">
-        <v>44743.92372685186</v>
+        <v>44743.92719907407</v>
       </c>
       <c r="C54">
-        <v>-112.21875</v>
+        <v>1895.2</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>-139.3442187309265</v>
+        <v>1897.376666665077</v>
       </c>
       <c r="F54">
-        <v>-112.21875</v>
+        <v>1895.2</v>
       </c>
       <c r="G54">
-        <v>1656706210</v>
+        <v>1656706510</v>
       </c>
       <c r="H54">
-        <v>52.79591935466627</v>
+        <v>82.4162677843326</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>-112.21875</v>
+        <v>1895.2</v>
       </c>
       <c r="K54">
-        <v>-0.1643940972222222</v>
+        <v>0.3279089285714286</v>
       </c>
       <c r="L54">
-        <v>272352582.4111806</v>
+        <v>-543246959.2747442</v>
       </c>
       <c r="M54">
-        <v>27.12546873092651</v>
+        <v>2.176666665077164</v>
       </c>
       <c r="N54">
-        <v>71.83945868773858</v>
+        <v>2886.371880077068</v>
       </c>
       <c r="O54">
-        <v>-350.5278961495916</v>
+        <v>908.381453253086</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2">
-        <v>44743.92719907407</v>
+        <v>44743.93067129629</v>
       </c>
       <c r="C55">
-        <v>-300</v>
+        <v>1960.41</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>-170.7915234565735</v>
+        <v>2029.288333296776</v>
       </c>
       <c r="F55">
-        <v>-300</v>
+        <v>1960.41</v>
       </c>
       <c r="G55">
-        <v>1656706510</v>
+        <v>1656706810</v>
       </c>
       <c r="H55">
-        <v>29.40606112957736</v>
+        <v>90.93084683776159</v>
       </c>
       <c r="I55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>-170.7915234565735</v>
+        <v>1960.41</v>
       </c>
       <c r="K55">
-        <v>-0.1776996006944444</v>
+        <v>0.3721779761904762</v>
       </c>
       <c r="L55">
-        <v>294395914.5033631</v>
+        <v>-616587758.3984466</v>
       </c>
       <c r="M55">
-        <v>129.2084765434265</v>
+        <v>68.87833329677574</v>
       </c>
       <c r="N55">
-        <v>-53.16727893826403</v>
+        <v>3120.458495349915</v>
       </c>
       <c r="O55">
-        <v>-288.415767974883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2">
-        <v>44743.93067129629</v>
-      </c>
-      <c r="C56">
-        <v>-210.6534375</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>-242.0381249785423</v>
-      </c>
-      <c r="F56">
-        <v>-210.6534375</v>
-      </c>
-      <c r="G56">
-        <v>1656706810</v>
-      </c>
-      <c r="H56">
-        <v>50.05911430815778</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>-210.6534375</v>
-      </c>
-      <c r="K56">
-        <v>-0.1904464236111111</v>
-      </c>
-      <c r="L56">
-        <v>315513644.8985475</v>
-      </c>
-      <c r="M56">
-        <v>31.38468747854233</v>
-      </c>
-      <c r="N56">
-        <v>-41.8016677459112</v>
-      </c>
-      <c r="O56">
-        <v>-442.2745822111734</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>58</v>
-      </c>
-      <c r="B57" s="2">
-        <v>44743.93414351852</v>
-      </c>
-      <c r="C57">
-        <v>-270.75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>-270.75</v>
-      </c>
-      <c r="G57">
-        <v>1656707110</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>-270.75</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
+        <v>938.1181712436367</v>
       </c>
     </row>
   </sheetData>
@@ -3159,96 +3065,96 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
-        <v>44743.79178240741</v>
+        <v>44743.78831018518</v>
       </c>
       <c r="C2">
-        <v>-190</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>-140.3674609381706</v>
+        <v>-141.3916666666046</v>
       </c>
       <c r="F2">
-        <v>-190</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>1656694810</v>
+        <v>1656694510</v>
       </c>
       <c r="H2">
-        <v>6.935700649278194</v>
+        <v>13.79997770731769</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>-140.3674609381706</v>
+        <v>-141.3916666666046</v>
       </c>
       <c r="K2">
-        <v>0.005929131944444445</v>
+        <v>-0.0009083333333333303</v>
       </c>
       <c r="L2">
-        <v>-9822902.487627259</v>
+        <v>1504689.454916662</v>
       </c>
       <c r="M2">
-        <v>49.63253906182945</v>
+        <v>166.3916666666046</v>
       </c>
       <c r="N2">
-        <v>-112.6246583410578</v>
+        <v>24.20806582120767</v>
       </c>
       <c r="O2">
-        <v>-168.1102635352833</v>
+        <v>-306.9913991544169</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>44743.92719907407</v>
+        <v>44743.87858796296</v>
       </c>
       <c r="C3">
-        <v>-300</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>-170.7915234565735</v>
+        <v>695</v>
       </c>
       <c r="F3">
-        <v>-300</v>
+        <v>75</v>
       </c>
       <c r="G3">
-        <v>1656706510</v>
+        <v>1656702310</v>
       </c>
       <c r="H3">
-        <v>29.40606112957736</v>
+        <v>40.617447860471</v>
       </c>
       <c r="I3">
         <v>-1</v>
       </c>
       <c r="J3">
-        <v>-170.7915234565735</v>
+        <v>695</v>
       </c>
       <c r="K3">
-        <v>-0.1776996006944444</v>
+        <v>0.247925</v>
       </c>
       <c r="L3">
-        <v>294395914.5033631</v>
+        <v>-410737225.20675</v>
       </c>
       <c r="M3">
-        <v>129.2084765434265</v>
+        <v>620</v>
       </c>
       <c r="N3">
-        <v>-53.16727893826403</v>
+        <v>1182.409374325652</v>
       </c>
       <c r="O3">
-        <v>-288.415767974883</v>
+        <v>207.5906256743481</v>
       </c>
     </row>
   </sheetData>
